--- a/data/trans_orig/CONS_ANTIDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en País Vasco</t>
+          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Andalucia</t>
+          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en C.Valenciana</t>
+          <t>Consumo de antidepresivos en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Barcelona</t>
+          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANTIDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>959</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4079</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,22 +806,22 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>4815</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>5943</t>
+          <t>7044</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>144183</t>
+          <t>160933</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>142665</t>
+          <t>159567</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>144941</t>
+          <t>161842</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>140427</t>
+          <t>165620</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>138812</t>
+          <t>163798</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>141514</t>
+          <t>166841</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,27 +919,27 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>284610</t>
+          <t>326553</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>282758</t>
+          <t>324324</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>285964</t>
+          <t>328228</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>799</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6621</t>
+          <t>7743</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>6519</t>
+          <t>7243</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4588</t>
+          <t>5083</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9252</t>
+          <t>9792</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79345</t>
+          <t>88589</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77554</t>
+          <t>87108</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80444</t>
+          <t>89626</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>104425</t>
+          <t>117260</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>102496</t>
+          <t>114925</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>106013</t>
+          <t>118861</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>183770</t>
+          <t>205850</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>181037</t>
+          <t>203301</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>185701</t>
+          <t>208010</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,27 +1422,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>3783</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6101</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4714</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,17 +1492,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6766</t>
+          <t>6425</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4873</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9575</t>
+          <t>8879</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -1535,22 +1535,22 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>159847</t>
+          <t>150101</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>157755</t>
+          <t>148163</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>161330</t>
+          <t>151499</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60388</t>
+          <t>58975</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58431</t>
+          <t>57027</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61615</t>
+          <t>60116</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,17 +1605,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>220235</t>
+          <t>209076</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>217426</t>
+          <t>206622</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>222128</t>
+          <t>210898</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>97,86%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5393</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8076</t>
+          <t>8107</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7829</t>
+          <t>6866</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5640</t>
+          <t>4935</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10730</t>
+          <t>9446</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13223</t>
+          <t>12537</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10178</t>
+          <t>9765</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16383</t>
+          <t>15880</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>164696</t>
+          <t>164048</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>162013</t>
+          <t>161612</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>166410</t>
+          <t>165839</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>169354</t>
+          <t>175324</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>166453</t>
+          <t>172744</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>171543</t>
+          <t>177255</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>334048</t>
+          <t>339372</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>330888</t>
+          <t>336029</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>337093</t>
+          <t>342144</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>97,23%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>956</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>394</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7971</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5918</t>
+          <t>6094</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10584</t>
+          <t>10999</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9029</t>
+          <t>9247</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>6851</t>
+          <t>7069</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>12022</t>
+          <t>12207</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75793</t>
+          <t>73495</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74489</t>
+          <t>72440</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76500</t>
+          <t>74057</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>124961</t>
+          <t>117125</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>122348</t>
+          <t>114417</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>127014</t>
+          <t>119322</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>200754</t>
+          <t>190620</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>197761</t>
+          <t>187660</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>202932</t>
+          <t>192798</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>96,46%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>2447</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2976</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6843</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4870</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>7093</t>
+          <t>6387</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -2564,27 +2564,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44985</t>
+          <t>55068</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43979</t>
+          <t>53156</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>113683</t>
+          <t>118879</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>111434</t>
+          <t>116880</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>115301</t>
+          <t>120172</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>158668</t>
+          <t>173947</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>156445</t>
+          <t>171817</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>160267</t>
+          <t>175295</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>98,37%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14191</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11258</t>
+          <t>11457</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18337</t>
+          <t>18487</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>30307</t>
+          <t>29875</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>25761</t>
+          <t>25605</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>35412</t>
+          <t>35110</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>44498</t>
+          <t>44524</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>38986</t>
+          <t>39234</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>50799</t>
+          <t>50608</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,4%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>668848</t>
+          <t>692234</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>664702</t>
+          <t>688396</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>671781</t>
+          <t>695426</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>713237</t>
+          <t>753184</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>708132</t>
+          <t>747949</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>717783</t>
+          <t>757454</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1382085</t>
+          <t>1445417</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1375784</t>
+          <t>1439333</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1387597</t>
+          <t>1450707</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>97,37%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4799</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19051</t>
+          <t>18463</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8320</t>
+          <t>8267</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20756</t>
+          <t>20485</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16038</t>
+          <t>16485</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34017</t>
+          <t>34006</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>347632</t>
+          <t>348220</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>361884</t>
+          <t>362025</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,69%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>278145</t>
+          <t>278416</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>290581</t>
+          <t>290634</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>631567</t>
+          <t>631578</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>649546</t>
+          <t>649099</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,52%</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3788</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15813</t>
+          <t>15307</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10170</t>
+          <t>10137</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22851</t>
+          <t>22883</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>16443</t>
+          <t>15779</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>33892</t>
+          <t>33095</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>308234</t>
+          <t>308740</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>320259</t>
+          <t>320108</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>237230</t>
+          <t>237198</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>249911</t>
+          <t>249944</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>550236</t>
+          <t>551033</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>567685</t>
+          <t>568349</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>97,3%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27248</t>
+          <t>27621</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6154</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15230</t>
+          <t>14727</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6175</t>
+          <t>6062</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41342</t>
+          <t>40638</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>448176</t>
+          <t>447803</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>473333</t>
+          <t>473525</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82334</t>
+          <t>82837</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91410</t>
+          <t>91814</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>84,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>531646</t>
+          <t>532350</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>566813</t>
+          <t>566926</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>98,94%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14525</t>
+          <t>14954</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31693</t>
+          <t>33257</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15590</t>
+          <t>13826</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>64409</t>
+          <t>63287</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>35817</t>
+          <t>36109</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>81635</t>
+          <t>82803</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>504462</t>
+          <t>502898</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>521630</t>
+          <t>521201</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>571899</t>
+          <t>573021</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>620718</t>
+          <t>622482</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1090827</t>
+          <t>1089659</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1136645</t>
+          <t>1136353</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>96,92%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5109</t>
+          <t>5554</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18359</t>
+          <t>18812</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23755</t>
+          <t>23122</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>56645</t>
+          <t>55310</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>35367</t>
+          <t>34093</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>67476</t>
+          <t>66648</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>192373</t>
+          <t>191920</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>205623</t>
+          <t>205178</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>367304</t>
+          <t>368639</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>400194</t>
+          <t>400827</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>86,64%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>567205</t>
+          <t>568033</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>599314</t>
+          <t>600588</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>94,63%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>512</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11442</t>
+          <t>10686</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30116</t>
+          <t>29392</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52545</t>
+          <t>52024</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>32146</t>
+          <t>33911</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>56741</t>
+          <t>58022</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>155319</t>
+          <t>156075</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166197</t>
+          <t>166249</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>437423</t>
+          <t>437944</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>459852</t>
+          <t>460576</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>599988</t>
+          <t>598707</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>624583</t>
+          <t>622818</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>94,84%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>41820</t>
+          <t>38661</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>82366</t>
+          <t>82553</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>114703</t>
+          <t>113627</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>192840</t>
+          <t>191627</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>180781</t>
+          <t>185222</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>263748</t>
+          <t>269803</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1997436</t>
+          <t>1997249</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2037982</t>
+          <t>2041141</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2013931</t>
+          <t>2015144</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2092068</t>
+          <t>2093144</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4022825</t>
+          <t>4016770</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4105792</t>
+          <t>4101351</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,68%</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>7742</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16048</t>
+          <t>16623</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12694</t>
+          <t>12817</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22268</t>
+          <t>22199</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>22837</t>
+          <t>22608</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>35878</t>
+          <t>35684</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>189113</t>
+          <t>188538</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>197528</t>
+          <t>197419</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>187638</t>
+          <t>187707</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>197212</t>
+          <t>197089</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>379188</t>
+          <t>379382</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>392229</t>
+          <t>392458</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>94,55%</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4488</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10865</t>
+          <t>11009</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15776</t>
+          <t>15756</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26487</t>
+          <t>26561</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>22025</t>
+          <t>21724</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>36293</t>
+          <t>34655</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>11,87%</t>
         </is>
       </c>
     </row>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>114083</t>
+          <t>113939</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>120460</t>
+          <t>120777</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>140602</t>
+          <t>140528</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>151313</t>
+          <t>151333</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>255744</t>
+          <t>257382</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>270012</t>
+          <t>270313</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>92,56%</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5097</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16415</t>
+          <t>16468</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4625</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15163</t>
+          <t>14975</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11555</t>
+          <t>11065</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>26301</t>
+          <t>26430</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78298</t>
+          <t>78245</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89616</t>
+          <t>89754</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,67%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42241</t>
+          <t>42429</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52779</t>
+          <t>53018</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>125816</t>
+          <t>125687</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>140562</t>
+          <t>141052</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>92,73%</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5337</t>
+          <t>5407</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14196</t>
+          <t>13904</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23080</t>
+          <t>22703</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41604</t>
+          <t>41221</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>30084</t>
+          <t>30211</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>52846</t>
+          <t>51700</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,08%</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>148946</t>
+          <t>149238</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>157805</t>
+          <t>157735</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>116686</t>
+          <t>117069</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>135210</t>
+          <t>135587</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>268586</t>
+          <t>269732</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>291348</t>
+          <t>291221</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>90,6%</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>793</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5147</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10054</t>
+          <t>10333</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23700</t>
+          <t>23651</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12260</t>
+          <t>12972</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>27135</t>
+          <t>27553</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,64%</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48562</t>
+          <t>48609</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52933</t>
+          <t>52916</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70404</t>
+          <t>70453</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>84050</t>
+          <t>83771</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>120678</t>
+          <t>120260</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>135553</t>
+          <t>134841</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>81,64%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>91,22%</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>674</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4361</t>
+          <t>4281</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8548</t>
+          <t>8521</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3654</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>10471</t>
+          <t>10606</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,73%</t>
         </is>
       </c>
     </row>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>32186</t>
+          <t>32266</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35766</t>
+          <t>35873</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>53718</t>
+          <t>53745</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>60063</t>
+          <t>59881</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,27%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10568,12 +10568,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>88343</t>
+          <t>88208</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>95160</t>
+          <t>95003</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,14%</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>32287</t>
+          <t>33022</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>50831</t>
+          <t>51069</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>83245</t>
+          <t>83623</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>114108</t>
+          <t>113940</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>121920</t>
+          <t>121652</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>156306</t>
+          <t>156778</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>627389</t>
+          <t>627151</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>645933</t>
+          <t>645198</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>634951</t>
+          <t>635119</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>665814</t>
+          <t>665436</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,77%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1270973</t>
+          <t>1270501</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1305359</t>
+          <t>1305627</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>89,05%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>91,48%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANTIDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>4936</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3234</t>
+          <t>19798</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2947</t>
+          <t>15297</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>9486</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>23288</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4815</t>
+          <t>26015</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>17884</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7044</t>
+          <t>37243</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>160933</t>
+          <t>384669</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>159567</t>
+          <t>375589</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>161842</t>
+          <t>390451</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>165620</t>
+          <t>312329</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>163798</t>
+          <t>304338</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>166841</t>
+          <t>318140</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>822</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>326553</t>
+          <t>696998</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>324324</t>
+          <t>685770</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>328228</t>
+          <t>705129</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>97,53%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,102 +1079,102 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>8264</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3317</t>
+          <t>15697</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5408</t>
+          <t>17020</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>11275</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7743</t>
+          <t>24910</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7243</t>
+          <t>25284</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5083</t>
+          <t>17378</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9792</t>
+          <t>35384</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88589</t>
+          <t>336083</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87108</t>
+          <t>328650</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89626</t>
+          <t>340259</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>117260</t>
+          <t>269920</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>114925</t>
+          <t>262030</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>118861</t>
+          <t>275665</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>692</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>205850</t>
+          <t>606003</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>203301</t>
+          <t>595903</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>208010</t>
+          <t>613909</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,25%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3783</t>
+          <t>11435</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>5816</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>20081</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>10514</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4590</t>
+          <t>15745</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6425</t>
+          <t>21948</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>14594</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8879</t>
+          <t>31227</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>8,39%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>150101</t>
+          <t>249121</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>148163</t>
+          <t>240475</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>151499</t>
+          <t>254740</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58975</t>
+          <t>100972</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57027</t>
+          <t>95741</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60116</t>
+          <t>105356</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>396</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>209076</t>
+          <t>350095</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>206622</t>
+          <t>340816</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>210898</t>
+          <t>357449</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>96,08%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>26478</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>18216</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8107</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6866</t>
+          <t>44564</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4935</t>
+          <t>34832</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9446</t>
+          <t>55727</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>12537</t>
+          <t>71042</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9765</t>
+          <t>57416</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15880</t>
+          <t>86482</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>164048</t>
+          <t>583504</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>161612</t>
+          <t>571982</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>165839</t>
+          <t>591766</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>603</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>175324</t>
+          <t>445258</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>172744</t>
+          <t>434095</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>177255</t>
+          <t>454990</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>88,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>339372</t>
+          <t>1028761</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>336029</t>
+          <t>1013321</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>342144</t>
+          <t>1042387</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>94,78%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>10839</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>19134</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8291</t>
+          <t>47729</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6094</t>
+          <t>36874</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10999</t>
+          <t>58460</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9247</t>
+          <t>58568</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7069</t>
+          <t>46720</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>12207</t>
+          <t>71925</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>10,88%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73495</t>
+          <t>242007</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72440</t>
+          <t>233712</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74057</t>
+          <t>246987</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>510</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>117125</t>
+          <t>360290</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>114417</t>
+          <t>349559</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>119322</t>
+          <t>371145</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>85,67%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>190620</t>
+          <t>602298</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>187660</t>
+          <t>588941</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>192798</t>
+          <t>614146</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>92,93%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>509</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2447</t>
+          <t>12037</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>43327</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>31987</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>55863</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4257</t>
+          <t>46498</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2909</t>
+          <t>36524</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>6387</t>
+          <t>62364</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55068</t>
+          <t>166326</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53156</t>
+          <t>157460</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>168988</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>636</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>118879</t>
+          <t>503547</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>116880</t>
+          <t>491011</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>120172</t>
+          <t>514887</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>711</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>173947</t>
+          <t>669873</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>171817</t>
+          <t>654007</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>175295</t>
+          <t>679847</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>94,9%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14649</t>
+          <t>70904</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11457</t>
+          <t>54844</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18487</t>
+          <t>87910</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29875</t>
+          <t>178450</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>25605</t>
+          <t>156719</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>35110</t>
+          <t>199200</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>340</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>44524</t>
+          <t>249354</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>39234</t>
+          <t>221932</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>50608</t>
+          <t>279477</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>692234</t>
+          <t>1961711</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>688396</t>
+          <t>1944705</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>695426</t>
+          <t>1977771</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t>2696</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>753184</t>
+          <t>1992318</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>747949</t>
+          <t>1971568</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>757454</t>
+          <t>2014049</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8122</t>
+          <t>4489</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1445417</t>
+          <t>3954029</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1439333</t>
+          <t>3923906</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1450707</t>
+          <t>3981451</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>94,72%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3374,107 +3374,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10154</t>
+          <t>11444</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>7742</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18463</t>
+          <t>16623</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13468</t>
+          <t>17149</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8267</t>
+          <t>12817</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20485</t>
+          <t>22199</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>23622</t>
+          <t>28593</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16485</t>
+          <t>22608</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34006</t>
+          <t>35684</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -3487,107 +3487,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>567</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>356529</t>
+          <t>193717</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>348220</t>
+          <t>188538</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>362025</t>
+          <t>197419</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>560</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>285433</t>
+          <t>192757</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>278416</t>
+          <t>187707</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>290634</t>
+          <t>197089</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>641962</t>
+          <t>386473</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>631578</t>
+          <t>379382</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>649099</t>
+          <t>392458</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>94,55%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>599</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205161</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205161</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205161</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>209906</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>209906</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>209906</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415066</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415066</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415066</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8015</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3939</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15307</t>
+          <t>11009</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15499</t>
+          <t>20892</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10137</t>
+          <t>15756</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22883</t>
+          <t>26561</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>23514</t>
+          <t>27805</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>15779</t>
+          <t>21724</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>33095</t>
+          <t>34655</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>11,87%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>316032</t>
+          <t>118035</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>308740</t>
+          <t>113939</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>320108</t>
+          <t>120777</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>373</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>244582</t>
+          <t>146197</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>237198</t>
+          <t>140528</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>249944</t>
+          <t>151333</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>655</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>560614</t>
+          <t>264232</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>551033</t>
+          <t>257382</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>568349</t>
+          <t>270313</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>92,56%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>427</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>167089</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>167089</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>167089</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4018,17 +4018,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>292037</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>292037</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>292037</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11028</t>
+          <t>8964</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27621</t>
+          <t>16468</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9864</t>
+          <t>8539</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14727</t>
+          <t>14975</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>20892</t>
+          <t>17504</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6062</t>
+          <t>11065</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>40638</t>
+          <t>26430</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>464396</t>
+          <t>85749</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>447803</t>
+          <t>78245</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>473525</t>
+          <t>89754</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87700</t>
+          <t>48865</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82837</t>
+          <t>42429</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91814</t>
+          <t>53018</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>308</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>552096</t>
+          <t>134613</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>532350</t>
+          <t>125687</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>566926</t>
+          <t>141052</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>92,73%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>94713</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>94713</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>94713</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>345</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>152117</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>152117</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>152117</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22001</t>
+          <t>8909</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14954</t>
+          <t>5407</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33257</t>
+          <t>13904</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40416</t>
+          <t>30935</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13826</t>
+          <t>22703</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>63287</t>
+          <t>41221</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>62417</t>
+          <t>39844</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>36109</t>
+          <t>30211</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>82803</t>
+          <t>51700</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>16,08%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>514154</t>
+          <t>154233</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>502898</t>
+          <t>149238</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>521201</t>
+          <t>157735</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>280</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>595892</t>
+          <t>127355</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>573021</t>
+          <t>117069</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>622482</t>
+          <t>135587</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>596</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1110045</t>
+          <t>281588</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1089659</t>
+          <t>269732</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1136353</t>
+          <t>291221</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>90,6%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158290</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158290</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158290</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>667</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321432</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321432</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321432</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10226</t>
+          <t>2276</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5554</t>
+          <t>793</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18812</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>43092</t>
+          <t>16106</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23122</t>
+          <t>10333</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>55310</t>
+          <t>23651</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>53318</t>
+          <t>18382</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>34093</t>
+          <t>12972</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>66648</t>
+          <t>27553</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>18,64%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>200506</t>
+          <t>51433</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>191920</t>
+          <t>48609</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>205178</t>
+          <t>52916</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>380857</t>
+          <t>77998</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>368639</t>
+          <t>70453</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>400827</t>
+          <t>83771</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>251</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>581363</t>
+          <t>129431</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>568033</t>
+          <t>120260</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>600588</t>
+          <t>134841</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>91,22%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>286</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>674</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10686</t>
+          <t>4281</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>40291</t>
+          <t>4670</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29392</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52024</t>
+          <t>8521</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>43231</t>
+          <t>6616</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>33911</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>58022</t>
+          <t>10606</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>10,73%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>163821</t>
+          <t>34601</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>156075</t>
+          <t>32266</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166249</t>
+          <t>35873</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>449677</t>
+          <t>57596</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>437944</t>
+          <t>53745</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>460576</t>
+          <t>59881</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>613498</t>
+          <t>92198</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>598707</t>
+          <t>88208</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>622818</t>
+          <t>95003</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>96,14%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62266</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62266</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62266</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98814</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98814</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98814</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>64363</t>
+          <t>40452</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>38661</t>
+          <t>33022</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>82553</t>
+          <t>51069</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>162631</t>
+          <t>98292</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>113627</t>
+          <t>83623</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>191627</t>
+          <t>113940</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>319</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>226994</t>
+          <t>138744</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>185222</t>
+          <t>121652</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>269803</t>
+          <t>156778</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2015439</t>
+          <t>637768</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1997249</t>
+          <t>627151</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2041141</t>
+          <t>645198</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2044140</t>
+          <t>650767</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2015144</t>
+          <t>635119</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2093144</t>
+          <t>665436</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4489</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4059579</t>
+          <t>1288535</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4016770</t>
+          <t>1270501</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4101351</t>
+          <t>1305627</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>91,48%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>678220</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>678220</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>678220</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>749059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>749059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>749059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>1427279</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>1427279</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>1427279</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
+          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8660,107 +8660,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11444</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7742</t>
+          <t>959</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16623</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17149</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12817</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22199</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>28593</t>
+          <t>4815</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>22608</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>35684</t>
+          <t>7044</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -8773,107 +8773,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>843</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>193717</t>
+          <t>160933</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>188538</t>
+          <t>159567</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>197419</t>
+          <t>161842</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>861</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>192757</t>
+          <t>165620</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>187707</t>
+          <t>163798</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>197089</t>
+          <t>166841</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>386473</t>
+          <t>326553</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>379382</t>
+          <t>324324</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>392458</t>
+          <t>328228</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>99,05%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205161</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>205161</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>205161</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>209906</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>209906</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>209906</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>415066</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>415066</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>415066</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9003,107 +9003,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6913</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>799</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11009</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20892</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15756</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26561</t>
+          <t>7743</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>27805</t>
+          <t>7243</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>21724</t>
+          <t>5083</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>34655</t>
+          <t>9792</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -9116,107 +9116,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>118035</t>
+          <t>88589</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>113939</t>
+          <t>87108</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>120777</t>
+          <t>89626</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>641</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>146197</t>
+          <t>117260</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>140528</t>
+          <t>114925</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>151333</t>
+          <t>118861</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>264232</t>
+          <t>205850</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>257382</t>
+          <t>203301</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>270313</t>
+          <t>208010</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>167089</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>167089</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>167089</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>292037</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>292037</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>292037</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9346,72 +9346,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8964</t>
+          <t>3783</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16468</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8539</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4386</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14975</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9421,32 +9421,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17504</t>
+          <t>6425</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11065</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>26430</t>
+          <t>8879</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -9459,107 +9459,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85749</t>
+          <t>150101</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78245</t>
+          <t>148163</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89754</t>
+          <t>151499</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,61%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>352</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48865</t>
+          <t>58975</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42429</t>
+          <t>57027</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53018</t>
+          <t>60116</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,12%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>134613</t>
+          <t>209076</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>125687</t>
+          <t>206622</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>141052</t>
+          <t>210898</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>82,63%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>97,86%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94713</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94713</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94713</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>152117</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>152117</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>152117</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9689,107 +9689,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8909</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5407</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13904</t>
+          <t>8107</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30935</t>
+          <t>6866</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22703</t>
+          <t>4935</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41221</t>
+          <t>9446</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>39844</t>
+          <t>12537</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>30211</t>
+          <t>9765</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>51700</t>
+          <t>15880</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -9802,107 +9802,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>972</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>154233</t>
+          <t>164048</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>149238</t>
+          <t>161612</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>157735</t>
+          <t>165839</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>995</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>127355</t>
+          <t>175324</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>117069</t>
+          <t>172744</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>135587</t>
+          <t>177255</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>73,96%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>281588</t>
+          <t>339372</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>269732</t>
+          <t>336029</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>291221</t>
+          <t>342144</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>97,23%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158290</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158290</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158290</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>321432</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>321432</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>321432</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10032,107 +10032,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>956</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>394</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5100</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16106</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10333</t>
+          <t>6094</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23651</t>
+          <t>10999</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>18382</t>
+          <t>9247</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12972</t>
+          <t>7069</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>27553</t>
+          <t>12207</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -10145,107 +10145,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51433</t>
+          <t>73495</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48609</t>
+          <t>72440</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52916</t>
+          <t>74057</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>696</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>77998</t>
+          <t>117125</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70453</t>
+          <t>114417</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>83771</t>
+          <t>119322</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>82,88%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>129431</t>
+          <t>190620</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>120260</t>
+          <t>187660</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>134841</t>
+          <t>192798</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>96,46%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10375,107 +10375,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4281</t>
+          <t>2447</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8521</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>6616</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>10606</t>
+          <t>6387</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -10488,107 +10488,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>34601</t>
+          <t>55068</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>32266</t>
+          <t>53156</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35873</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>667</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>57596</t>
+          <t>118879</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>53745</t>
+          <t>116880</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>59881</t>
+          <t>120172</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>933</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>92198</t>
+          <t>173947</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>88208</t>
+          <t>171817</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>95003</t>
+          <t>175295</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>98,37%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62266</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62266</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>62266</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>98814</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>98814</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>98814</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10718,107 +10718,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>40452</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>33022</t>
+          <t>11457</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>51069</t>
+          <t>18487</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>98292</t>
+          <t>29875</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>83623</t>
+          <t>25605</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>113940</t>
+          <t>35110</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>267</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>138744</t>
+          <t>44524</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>121652</t>
+          <t>39234</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>156778</t>
+          <t>50608</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>3,4%</t>
         </is>
       </c>
     </row>
@@ -10831,107 +10831,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>637768</t>
+          <t>692234</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>627151</t>
+          <t>688396</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>645198</t>
+          <t>695426</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>650767</t>
+          <t>753184</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>635119</t>
+          <t>747949</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>665436</t>
+          <t>757454</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>8122</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1288535</t>
+          <t>1445417</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1270501</t>
+          <t>1439333</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1305627</t>
+          <t>1450707</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>97,37%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>678220</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>678220</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>678220</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>749059</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>749059</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>749059</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1427279</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1427279</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1427279</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
